--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/Repositorio/Distribucion_ManoObra-2019.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/Repositorio/Distribucion_ManoObra-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{215F3C4B-0892-4B4D-AA6B-0CF44117A7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21718436-5F12-499B-912E-B9A6D4E68828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="14460" windowHeight="15555" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="26" r:id="rId1"/>
@@ -427,16 +427,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,8 +516,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,31 +663,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,15 +699,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -709,40 +724,40 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,20 +771,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -780,24 +795,36 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -805,7 +832,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,17 +843,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,17 +870,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2727,90 +2755,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A8:R80"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="8" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" customWidth="1"/>
-    <col min="14" max="14" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="95" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="97" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="102" t="s">
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="102" t="s">
+      <c r="K10" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="78" t="s">
         <v>5</v>
@@ -2836,11 +2864,11 @@
       <c r="I11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2882,7 +2910,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -2924,7 +2952,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2977,76 +3005,76 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="100" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
       <c r="N17" s="14"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="95" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
       <c r="N18" s="14"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="97" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="102" t="s">
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="19" t="s">
@@ -3058,7 +3086,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="79" t="s">
         <v>5</v>
@@ -3084,14 +3112,14 @@
       <c r="I20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>105</v>
       </c>
@@ -3131,7 +3159,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>106</v>
       </c>
@@ -3170,7 +3198,7 @@
       </c>
       <c r="N22" s="65"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>101</v>
       </c>
@@ -3209,7 +3237,7 @@
       </c>
       <c r="N23" s="65"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>102</v>
       </c>
@@ -3248,7 +3276,7 @@
       </c>
       <c r="N24" s="65"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
@@ -3287,7 +3315,7 @@
       </c>
       <c r="N25" s="65"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>95</v>
       </c>
@@ -3326,7 +3354,7 @@
       </c>
       <c r="N26" s="65"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>103</v>
       </c>
@@ -3376,7 +3404,7 @@
       </c>
       <c r="N27" s="65"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>114</v>
       </c>
@@ -3426,7 +3454,7 @@
       </c>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>113</v>
       </c>
@@ -3465,7 +3493,7 @@
       </c>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>115</v>
       </c>
@@ -3504,7 +3532,7 @@
       </c>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>116</v>
       </c>
@@ -3543,7 +3571,7 @@
       </c>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>117</v>
       </c>
@@ -3582,7 +3610,7 @@
       </c>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>118</v>
       </c>
@@ -3622,7 +3650,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="72"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -3661,7 +3689,7 @@
       </c>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>38</v>
       </c>
@@ -3709,71 +3737,71 @@
         <v>571894</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" s="94" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-    </row>
-    <row r="39" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="95" t="s">
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+    </row>
+    <row r="39" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-    </row>
-    <row r="40" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="96" t="s">
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+    </row>
+    <row r="40" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="97" t="s">
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="96" t="s">
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="96" t="s">
+      <c r="K40" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="96" t="s">
+      <c r="L40" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="96"/>
+    <row r="41" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="113"/>
       <c r="B41" s="38" t="s">
         <v>5</v>
       </c>
@@ -3798,11 +3826,11 @@
       <c r="I41" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-    </row>
-    <row r="42" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+    </row>
+    <row r="42" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -3846,12 +3874,12 @@
         <f>SUM(J42:K42)</f>
         <v>1884</v>
       </c>
-      <c r="O42" s="89"/>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="89"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>106</v>
       </c>
@@ -3895,12 +3923,12 @@
         <f>SUM(J43:K43)</f>
         <v>599</v>
       </c>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="90"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>101</v>
       </c>
@@ -3944,12 +3972,12 @@
         <f>SUM(J44:K44)</f>
         <v>13559</v>
       </c>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>102</v>
       </c>
@@ -3993,12 +4021,12 @@
         <f t="shared" ref="L45:L55" si="7">SUM(J45:K45)</f>
         <v>36949</v>
       </c>
-      <c r="O45" s="90"/>
-      <c r="P45" s="90"/>
-      <c r="Q45" s="90"/>
-      <c r="R45" s="90"/>
-    </row>
-    <row r="46" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O45" s="89"/>
+      <c r="P45" s="89"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="89"/>
+    </row>
+    <row r="46" spans="1:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68" t="s">
         <v>98</v>
       </c>
@@ -4042,12 +4070,12 @@
         <v>47555</v>
       </c>
       <c r="M46" s="74"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-    </row>
-    <row r="47" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+    </row>
+    <row r="47" spans="1:18" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
         <v>95</v>
       </c>
@@ -4096,7 +4124,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>103</v>
       </c>
@@ -4141,7 +4169,7 @@
         <v>99275</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
         <v>107</v>
       </c>
@@ -4187,7 +4215,7 @@
       </c>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="68" t="s">
         <v>113</v>
       </c>
@@ -4233,7 +4261,7 @@
       </c>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="68" t="s">
         <v>108</v>
       </c>
@@ -4278,7 +4306,7 @@
         <v>12549</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="68" t="s">
         <v>109</v>
       </c>
@@ -4323,7 +4351,7 @@
         <v>24302</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
         <v>110</v>
       </c>
@@ -4367,7 +4395,7 @@
         <v>13279</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="68" t="s">
         <v>111</v>
       </c>
@@ -4411,12 +4439,12 @@
         <v>9238</v>
       </c>
       <c r="N54" s="65"/>
-      <c r="O54" s="90"/>
-      <c r="P54" s="90"/>
-      <c r="Q54" s="90"/>
-      <c r="R54" s="90"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O54" s="89"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>112</v>
       </c>
@@ -4459,12 +4487,12 @@
         <f t="shared" si="7"/>
         <v>659</v>
       </c>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
         <v>38</v>
       </c>
@@ -4512,81 +4540,81 @@
         <f>SUM(L42:L55)</f>
         <v>453132</v>
       </c>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="90"/>
-      <c r="R56" s="90"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O56" s="89"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B58" s="92"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="91"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="94" t="s">
+    <row r="59" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-    </row>
-    <row r="60" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="95" t="s">
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+    </row>
+    <row r="60" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-    </row>
-    <row r="61" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="96" t="s">
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+    </row>
+    <row r="61" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="97" t="s">
+      <c r="B61" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="97" t="s">
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="96" t="s">
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K61" s="96" t="s">
+      <c r="K61" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="96" t="s">
+      <c r="L61" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="96"/>
+    <row r="62" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="113"/>
       <c r="B62" s="38" t="s">
         <v>5</v>
       </c>
@@ -4611,18 +4639,18 @@
       <c r="I62" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-    </row>
-    <row r="63" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+    </row>
+    <row r="63" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="87">
+      <c r="B63" s="86">
         <v>21</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="86">
         <v>14</v>
       </c>
       <c r="D63" s="82">
@@ -4660,14 +4688,14 @@
         <v>393</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="87">
+      <c r="B64" s="86">
         <v>7</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="86">
         <v>4</v>
       </c>
       <c r="D64" s="82">
@@ -4705,14 +4733,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="87">
+      <c r="B65" s="86">
         <v>38</v>
       </c>
-      <c r="C65" s="87">
+      <c r="C65" s="86">
         <v>3052</v>
       </c>
       <c r="D65" s="82">
@@ -4750,14 +4778,14 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="87">
+      <c r="B66" s="86">
         <v>189</v>
       </c>
-      <c r="C66" s="87">
+      <c r="C66" s="86">
         <v>6690</v>
       </c>
       <c r="D66" s="82">
@@ -4795,14 +4823,14 @@
         <v>10744</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="87">
+      <c r="B67" s="86">
         <v>642</v>
       </c>
-      <c r="C67" s="87">
+      <c r="C67" s="86">
         <v>11801</v>
       </c>
       <c r="D67" s="82">
@@ -4840,14 +4868,14 @@
       </c>
       <c r="M67" s="31"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="87">
+      <c r="B68" s="86">
         <v>1056</v>
       </c>
-      <c r="C68" s="87">
+      <c r="C68" s="86">
         <v>9616</v>
       </c>
       <c r="D68" s="82">
@@ -4885,14 +4913,14 @@
       </c>
       <c r="M68" s="23"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="87">
+      <c r="B69" s="86">
         <v>1055</v>
       </c>
-      <c r="C69" s="87">
+      <c r="C69" s="86">
         <v>21029</v>
       </c>
       <c r="D69" s="82">
@@ -4930,14 +4958,14 @@
         <v>33305</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="87">
+      <c r="B70" s="86">
         <v>756</v>
       </c>
-      <c r="C70" s="87">
+      <c r="C70" s="86">
         <v>10362</v>
       </c>
       <c r="D70" s="82">
@@ -4948,10 +4976,10 @@
         <f t="shared" si="10"/>
         <v>0.64482078645168772</v>
       </c>
-      <c r="F70" s="88">
+      <c r="F70" s="87">
         <v>1290</v>
       </c>
-      <c r="G70" s="88">
+      <c r="G70" s="87">
         <v>4834</v>
       </c>
       <c r="H70" s="7">
@@ -4976,14 +5004,14 @@
       </c>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="87">
+      <c r="B71" s="86">
         <v>221</v>
       </c>
-      <c r="C71" s="87">
+      <c r="C71" s="86">
         <v>4461</v>
       </c>
       <c r="D71" s="82">
@@ -5022,14 +5050,14 @@
       </c>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="87">
+      <c r="B72" s="86">
         <v>57</v>
       </c>
-      <c r="C72" s="87">
+      <c r="C72" s="86">
         <v>913</v>
       </c>
       <c r="D72" s="82">
@@ -5068,14 +5096,14 @@
       </c>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="87">
+      <c r="B73" s="86">
         <v>166</v>
       </c>
-      <c r="C73" s="87">
+      <c r="C73" s="86">
         <v>2760</v>
       </c>
       <c r="D73" s="82">
@@ -5114,14 +5142,14 @@
       </c>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="87">
+      <c r="B74" s="86">
         <v>41</v>
       </c>
-      <c r="C74" s="87">
+      <c r="C74" s="86">
         <v>916</v>
       </c>
       <c r="D74" s="82">
@@ -5159,14 +5187,14 @@
       </c>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="87">
+      <c r="B75" s="86">
         <v>52</v>
       </c>
-      <c r="C75" s="87">
+      <c r="C75" s="86">
         <v>659</v>
       </c>
       <c r="D75" s="82">
@@ -5204,14 +5232,14 @@
       </c>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="87">
+      <c r="B76" s="86">
         <v>5</v>
       </c>
-      <c r="C76" s="87">
+      <c r="C76" s="86">
         <v>36</v>
       </c>
       <c r="D76" s="82">
@@ -5248,7 +5276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>38</v>
       </c>
@@ -5297,19 +5325,19 @@
         <v>118762</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1">
+  <dataConsolidate topLabels="1">
     <dataRefs count="13">
       <dataRef ref="A21:L25" sheet="Araucanía"/>
       <dataRef ref="A17:L21" sheet="Arica y Parinacota"/>
@@ -5327,18 +5355,14 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="28">
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A60:L60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
     <mergeCell ref="A38:L38"/>
     <mergeCell ref="A39:L39"/>
     <mergeCell ref="A40:A41"/>
@@ -5347,14 +5371,18 @@
     <mergeCell ref="J40:J41"/>
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A60:L60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
@@ -5364,77 +5392,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Hoja7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -5442,7 +5470,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="63" t="s">
         <v>5</v>
@@ -5468,19 +5496,23 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4" s="81">
+        <f>SUM(B5,B13)</f>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>123</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>222</v>
       </c>
       <c r="D5" s="7">
@@ -5491,10 +5523,10 @@
         <f>+D5/L5</f>
         <v>0.14718430034129693</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>565</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>1434</v>
       </c>
       <c r="H5" s="7">
@@ -5518,14 +5550,14 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="94">
         <v>139</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="94">
         <v>66</v>
       </c>
       <c r="D6" s="7">
@@ -5534,10 +5566,10 @@
       <c r="E6" s="66">
         <v>9.0030742204655248E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="94">
         <v>699</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="94">
         <v>1373</v>
       </c>
       <c r="H6" s="7">
@@ -5556,73 +5588,73 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="102" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="63" t="s">
         <v>5</v>
@@ -5648,19 +5680,19 @@
       <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="36"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="96">
         <v>36</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="96">
         <v>23</v>
       </c>
       <c r="D13" s="7">
@@ -5671,10 +5703,10 @@
         <f>+D13/L13</f>
         <v>0.12688172043010754</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="96">
         <v>147</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="96">
         <v>259</v>
       </c>
       <c r="H13" s="7">
@@ -5698,14 +5730,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="95">
         <v>21</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="95">
         <v>14</v>
       </c>
       <c r="D14" s="82">
@@ -5716,10 +5748,10 @@
         <f>+D14/L14</f>
         <v>8.9058524173027995E-2</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="97">
         <v>211</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="97">
         <v>147</v>
       </c>
       <c r="H14" s="7">
@@ -5743,16 +5775,21 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B11:E11"/>
@@ -5760,11 +5797,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="89" orientation="landscape"/>
@@ -5773,78 +5805,78 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Hoja8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -5852,7 +5884,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="79" t="s">
         <v>5</v>
@@ -5878,19 +5910,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>48</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>43</v>
       </c>
       <c r="D5" s="7">
@@ -5901,10 +5933,10 @@
         <f>+D5/L5</f>
         <v>0.16337522441651706</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>221</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>245</v>
       </c>
       <c r="H5" s="7">
@@ -5928,14 +5960,14 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="97">
         <v>58</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="97">
         <v>0</v>
       </c>
       <c r="D6" s="7">
@@ -5946,10 +5978,10 @@
         <f>+D6/L6</f>
         <v>9.6828046744574292E-2</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="97">
         <v>224</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="97">
         <v>317</v>
       </c>
       <c r="H6" s="7">
@@ -5974,73 +6006,73 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="105" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="102" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="79" t="s">
         <v>5</v>
@@ -6066,19 +6098,19 @@
       <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="36"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="96">
         <v>12</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="96">
         <v>15</v>
       </c>
       <c r="D13" s="7">
@@ -6089,10 +6121,10 @@
         <f>+D13/L13</f>
         <v>0.29032258064516131</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="96">
         <v>29</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="96">
         <v>37</v>
       </c>
       <c r="H13" s="7">
@@ -6116,14 +6148,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="95">
         <v>7</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="95">
         <v>4</v>
       </c>
       <c r="D14" s="82">
@@ -6134,10 +6166,10 @@
         <f>+D14/L14</f>
         <v>0.12087912087912088</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="97">
         <v>47</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="97">
         <v>33</v>
       </c>
       <c r="H14" s="7">
@@ -6161,13 +6193,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B11:E11"/>
@@ -6175,11 +6212,6 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="89" orientation="landscape"/>
@@ -6188,81 +6220,81 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Hoja9">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="96" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -6287,18 +6319,18 @@
       <c r="I4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>2011</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>405</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>4302</v>
       </c>
       <c r="D5" s="49">
@@ -6309,10 +6341,10 @@
         <f>+D5/L5</f>
         <v>0.29764765397748832</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>2111</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>8996</v>
       </c>
       <c r="H5" s="50">
@@ -6336,14 +6368,14 @@
         <v>15814</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>2015</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>311</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>2825</v>
       </c>
       <c r="D6" s="49">
@@ -6354,10 +6386,10 @@
         <f>+D6/L6</f>
         <v>0.29767441860465116</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="96">
         <v>1946</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="96">
         <v>5453</v>
       </c>
       <c r="H6" s="50">
@@ -6381,14 +6413,14 @@
         <v>10535</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>2018</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>370</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>3803</v>
       </c>
       <c r="D7" s="49">
@@ -6399,10 +6431,10 @@
         <f>+D7/L7</f>
         <v>0.30776605944391178</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="96">
         <v>1784</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="96">
         <v>7602</v>
       </c>
       <c r="H7" s="50">
@@ -6426,7 +6458,7 @@
         <v>13559</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>104</v>
       </c>
@@ -6470,7 +6502,7 @@
       </c>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -6486,7 +6518,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -6500,66 +6532,66 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="105" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-    </row>
-    <row r="13" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="96" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+    </row>
+    <row r="13" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="97" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="96" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="96" t="s">
+      <c r="K13" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="96" t="s">
+      <c r="L13" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="113"/>
       <c r="B14" s="38" t="s">
         <v>5</v>
       </c>
@@ -6584,23 +6616,23 @@
       <c r="I14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
       <c r="S14" s="80"/>
       <c r="T14" s="80"/>
     </row>
-    <row r="15" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48">
         <v>2011</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>186</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>3799</v>
       </c>
       <c r="D15" s="49">
@@ -6611,10 +6643,10 @@
         <f>+D15/L15</f>
         <v>0.55961241398679962</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="96">
         <v>637</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="96">
         <v>2499</v>
       </c>
       <c r="H15" s="50">
@@ -6643,14 +6675,14 @@
       <c r="S15" s="81"/>
       <c r="T15" s="81"/>
     </row>
-    <row r="16" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>2015</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>33</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>3359</v>
       </c>
       <c r="D16" s="49">
@@ -6661,10 +6693,10 @@
         <f>+D16/L16</f>
         <v>0.47586980920314254</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="96">
         <v>1348</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="96">
         <v>2388</v>
       </c>
       <c r="H16" s="50">
@@ -6693,14 +6725,14 @@
       <c r="S16" s="81"/>
       <c r="T16" s="81"/>
     </row>
-    <row r="17" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>2018</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="96">
         <v>38</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="96">
         <v>3052</v>
       </c>
       <c r="D17" s="49">
@@ -6711,10 +6743,10 @@
         <f>+D17/L17</f>
         <v>0.5653128430296378</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="96">
         <v>125</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="96">
         <v>2251</v>
       </c>
       <c r="H17" s="50">
@@ -6738,7 +6770,7 @@
         <v>5466</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>104</v>
       </c>
@@ -6779,7 +6811,7 @@
       </c>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -6796,7 +6828,7 @@
       <c r="L19" s="17"/>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1">
+  <dataConsolidate topLabels="1">
     <dataRefs count="3">
       <dataRef ref="A23:L27" sheet="Atacama"/>
       <dataRef ref="A24:L28" sheet="Coquimbo"/>
@@ -6804,11 +6836,6 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="16">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A3:A4"/>
@@ -6820,6 +6847,11 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="88" orientation="landscape"/>
@@ -6831,81 +6863,81 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Hoja10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F16" sqref="F16:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="96" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -6930,18 +6962,18 @@
       <c r="I4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48">
         <v>2011</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>1163</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>12874</v>
       </c>
       <c r="D5" s="49">
@@ -6952,10 +6984,10 @@
         <f>+D5/L5</f>
         <v>0.39556444795130474</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>6305</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>15144</v>
       </c>
       <c r="H5" s="50">
@@ -6979,14 +7011,14 @@
         <v>35486</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>2015</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>1276</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>11158</v>
       </c>
       <c r="D6" s="49">
@@ -6997,10 +7029,10 @@
         <f>+D6/L6</f>
         <v>0.35986339430423708</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="96">
         <v>7070</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="96">
         <v>15048</v>
       </c>
       <c r="H6" s="50">
@@ -7024,14 +7056,14 @@
         <v>34552</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48">
         <v>2018</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>1376</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>12483</v>
       </c>
       <c r="D7" s="49">
@@ -7042,10 +7074,10 @@
         <f>+D7/L7</f>
         <v>0.37508457603724055</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="96">
         <v>5725</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="96">
         <v>17365</v>
       </c>
       <c r="H7" s="50">
@@ -7069,7 +7101,7 @@
         <v>36949</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>104</v>
       </c>
@@ -7113,7 +7145,7 @@
       </c>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -7129,69 +7161,69 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="105" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-    </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="96" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+    </row>
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="97" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="96" t="s">
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="96" t="s">
+      <c r="K14" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="96" t="s">
+      <c r="L14" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="113"/>
       <c r="B15" s="38" t="s">
         <v>5</v>
       </c>
@@ -7216,18 +7248,18 @@
       <c r="I15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+    </row>
+    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48">
         <v>2011</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>264</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>9117</v>
       </c>
       <c r="D16" s="49">
@@ -7238,10 +7270,10 @@
         <f>+D16/L16</f>
         <v>0.66193903471634208</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="96">
         <v>460</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="96">
         <v>4331</v>
       </c>
       <c r="H16" s="50">
@@ -7265,14 +7297,14 @@
         <v>14172</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48">
         <v>2015</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="96">
         <v>192</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="96">
         <v>6612</v>
       </c>
       <c r="D17" s="49">
@@ -7283,10 +7315,10 @@
         <f>+D17/L17</f>
         <v>0.55565536953858718</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="96">
         <v>1852</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="96">
         <v>3589</v>
       </c>
       <c r="H17" s="50">
@@ -7310,14 +7342,14 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48">
         <v>2018</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="96">
         <v>189</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="96">
         <v>6690</v>
       </c>
       <c r="D18" s="49">
@@ -7328,10 +7360,10 @@
         <f>+D18/L18</f>
         <v>0.6402643335815339</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="96">
         <v>683</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="96">
         <v>3182</v>
       </c>
       <c r="H18" s="50">
@@ -7355,7 +7387,7 @@
         <v>10744</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>104</v>
       </c>
@@ -7399,7 +7431,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -7417,11 +7449,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="A12:L12"/>
     <mergeCell ref="A3:A4"/>
@@ -7433,6 +7460,11 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="86" orientation="landscape"/>
@@ -7444,86 +7476,86 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Hoja11">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="1" customWidth="1"/>
-    <col min="6" max="13" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.90625" style="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="96" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -7548,18 +7580,18 @@
       <c r="I4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>2008</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="98">
         <v>1041</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="98">
         <v>12896</v>
       </c>
       <c r="D5" s="41">
@@ -7570,10 +7602,10 @@
         <f>+D5/L5</f>
         <v>0.27227084472923341</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="98">
         <v>12024</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="98">
         <v>25227</v>
       </c>
       <c r="H5" s="41">
@@ -7597,14 +7629,14 @@
         <v>51188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2014</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="98">
         <v>1441</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="98">
         <v>11520</v>
       </c>
       <c r="D6" s="41">
@@ -7615,10 +7647,10 @@
         <f>+D6/L6</f>
         <v>0.29756411139426497</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="98">
         <v>10275</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="98">
         <v>20321</v>
       </c>
       <c r="H6" s="41">
@@ -7642,14 +7674,14 @@
         <v>43557</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2017</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="98">
         <v>1587</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="98">
         <v>12650</v>
       </c>
       <c r="D7" s="41">
@@ -7660,10 +7692,10 @@
         <f>+D7/L7</f>
         <v>0.29937966565029966</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="98">
         <v>9828</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="98">
         <v>23490</v>
       </c>
       <c r="H7" s="41">
@@ -7687,7 +7719,7 @@
         <v>47555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>97</v>
       </c>
@@ -7731,7 +7763,7 @@
       </c>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -7747,69 +7779,69 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
     </row>
-    <row r="11" spans="1:13" s="30" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:13" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-    </row>
-    <row r="12" spans="1:13" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-    </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96" t="s">
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="97" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="96" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="96" t="s">
+      <c r="K13" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="96" t="s">
+      <c r="L13" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="113"/>
       <c r="B14" s="38" t="s">
         <v>5</v>
       </c>
@@ -7834,18 +7866,18 @@
       <c r="I14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-    </row>
-    <row r="15" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2008</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="98">
         <v>893</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="98">
         <v>10693</v>
       </c>
       <c r="D15" s="41">
@@ -7856,10 +7888,10 @@
         <f>+D15/L15</f>
         <v>0.70052602938508979</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="98">
         <v>1128</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="98">
         <v>3825</v>
       </c>
       <c r="H15" s="41">
@@ -7883,14 +7915,14 @@
         <v>16539</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2014</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="98">
         <v>1255</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="98">
         <v>10297</v>
       </c>
       <c r="D16" s="41">
@@ -7901,10 +7933,10 @@
         <f>+D16/L16</f>
         <v>0.66801596021511589</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="98">
         <v>1723</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="98">
         <v>4018</v>
       </c>
       <c r="H16" s="41">
@@ -7928,14 +7960,14 @@
         <v>17293</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>2017</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="98">
         <v>642</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="98">
         <v>11801</v>
       </c>
       <c r="D17" s="41">
@@ -7946,10 +7978,10 @@
         <f>+D17/L17</f>
         <v>0.69904494382022475</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="98">
         <v>1420</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="98">
         <v>3937</v>
       </c>
       <c r="H17" s="41">
@@ -7973,7 +8005,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="18" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>97</v>
       </c>
@@ -8017,7 +8049,7 @@
       </c>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -8062,83 +8094,83 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Hoja12">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" style="37" customWidth="1"/>
-    <col min="2" max="12" width="11.6328125" style="37" customWidth="1"/>
-    <col min="13" max="16384" width="10.90625" style="37"/>
+    <col min="1" max="1" width="22.28515625" style="37" customWidth="1"/>
+    <col min="2" max="12" width="11.7109375" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="96" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="113"/>
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -8163,18 +8195,18 @@
       <c r="I4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-    </row>
-    <row r="5" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>2009</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="99">
         <v>912</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="99">
         <v>16093</v>
       </c>
       <c r="D5" s="46">
@@ -8185,10 +8217,10 @@
         <f>+D5/L5</f>
         <v>0.34617890151052483</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="99">
         <v>8702</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="99">
         <v>23415</v>
       </c>
       <c r="H5" s="46">
@@ -8212,14 +8244,14 @@
         <v>49122</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2013</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="99">
         <v>1161</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="99">
         <v>11886</v>
       </c>
       <c r="D6" s="46">
@@ -8230,10 +8262,10 @@
         <f>+D6/L6</f>
         <v>0.31043589987627296</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="99">
         <v>8437</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="99">
         <v>20544</v>
       </c>
       <c r="H6" s="46">
@@ -8258,14 +8290,14 @@
       </c>
       <c r="M6" s="31"/>
     </row>
-    <row r="7" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2017</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="99">
         <v>1326</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="99">
         <v>11463</v>
       </c>
       <c r="D7" s="46">
@@ -8276,10 +8308,10 @@
         <f>+D7/L7</f>
         <v>0.31401772779728437</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="99">
         <v>7788</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="99">
         <v>20150</v>
       </c>
       <c r="H7" s="46">
@@ -8304,7 +8336,7 @@
       </c>
       <c r="M7" s="31"/>
     </row>
-    <row r="8" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>93</v>
       </c>
@@ -8345,7 +8377,7 @@
       <c r="L8" s="26"/>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -8361,67 +8393,67 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+    <row r="10" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-    </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="97" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="96" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="96" t="s">
+      <c r="K13" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="96" t="s">
+      <c r="L13" s="113" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+    <row r="14" spans="1:13" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="113"/>
       <c r="B14" s="38" t="s">
         <v>5</v>
       </c>
@@ -8446,18 +8478,18 @@
       <c r="I14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-    </row>
-    <row r="15" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+    </row>
+    <row r="15" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>2009</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="100">
         <v>905</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="100">
         <v>13462</v>
       </c>
       <c r="D15" s="28">
@@ -8468,10 +8500,10 @@
         <f>+D15/L15</f>
         <v>0.66061247011219426</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="100">
         <v>1637</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="100">
         <v>5744</v>
       </c>
       <c r="H15" s="28">
@@ -8495,14 +8527,14 @@
         <v>21748</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>2013</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="100">
         <v>1229</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="100">
         <v>9966</v>
       </c>
       <c r="D16" s="28">
@@ -8513,10 +8545,10 @@
         <f>+D16/L16</f>
         <v>0.62960463416005852</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="100">
         <v>2321</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="100">
         <v>4265</v>
       </c>
       <c r="H16" s="28">
@@ -8541,14 +8573,14 @@
       </c>
       <c r="M16" s="31"/>
     </row>
-    <row r="17" spans="1:13" s="30" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>2017</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="100">
         <v>1056</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="100">
         <v>9616</v>
       </c>
       <c r="D17" s="28">
@@ -8559,10 +8591,10 @@
         <f>+D17/L17</f>
         <v>0.58441487322709595</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="100">
         <v>2077</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="100">
         <v>5512</v>
       </c>
       <c r="H17" s="28">
@@ -8587,7 +8619,7 @@
       </c>
       <c r="M17" s="31"/>
     </row>
-    <row r="18" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>93</v>
       </c>
@@ -8628,7 +8660,7 @@
       <c r="L18" s="26"/>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -8646,6 +8678,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A4"/>
@@ -8654,14 +8694,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="87" orientation="landscape"/>
@@ -8673,87 +8705,87 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Hoja13">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="21" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-    </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="35" t="s">
         <v>5</v>
@@ -8779,18 +8811,18 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2009</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="96">
         <v>2003</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="96">
         <v>38409</v>
       </c>
       <c r="D5" s="6">
@@ -8828,14 +8860,14 @@
         <v>131796</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2015</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="96">
         <v>2002</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="96">
         <v>27498</v>
       </c>
       <c r="D6" s="6">
@@ -8873,14 +8905,14 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2018</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="101">
         <v>2609</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="101">
         <v>30188</v>
       </c>
       <c r="D7" s="49">
@@ -8889,10 +8921,10 @@
       <c r="E7" s="69">
         <v>0.33036514731805589</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="92">
         <v>13922</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="92">
         <v>52556</v>
       </c>
       <c r="H7" s="49">
@@ -8911,7 +8943,7 @@
         <v>99275</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>104</v>
       </c>
@@ -8955,7 +8987,7 @@
       </c>
       <c r="M8" s="23"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -8971,7 +9003,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -8985,65 +9017,65 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108" t="s">
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-    </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-    </row>
-    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+    </row>
+    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="97" t="s">
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="102" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="102" t="s">
+      <c r="K13" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="35" t="s">
         <v>5</v>
@@ -9069,18 +9101,18 @@
       <c r="I14" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2009</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="102">
         <v>1140</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="102">
         <v>17522</v>
       </c>
       <c r="D15" s="6">
@@ -9118,14 +9150,14 @@
         <v>29703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2015</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="96">
         <v>947</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="96">
         <v>21342</v>
       </c>
       <c r="D16" s="6">
@@ -9164,14 +9196,14 @@
       </c>
       <c r="M16" s="23"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2018</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="96">
         <v>1055</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="96">
         <v>21029</v>
       </c>
       <c r="D17" s="49">
@@ -9210,7 +9242,7 @@
       </c>
       <c r="M17" s="23"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>104</v>
       </c>
@@ -9254,7 +9286,7 @@
       </c>
       <c r="M18" s="23"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
@@ -9264,18 +9296,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="92" orientation="landscape"/>
@@ -9287,87 +9319,87 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Hoja14">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:14" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-    </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="110" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="54" t="s">
         <v>5</v>
@@ -9393,18 +9425,18 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2013</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="96">
         <v>1682</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="96">
         <v>38135</v>
       </c>
       <c r="D5" s="6">
@@ -9442,14 +9474,14 @@
         <v>94522</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2016</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>2098</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>37667</v>
       </c>
       <c r="D6" s="49">
@@ -9487,14 +9519,14 @@
         <v>108138</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="68">
         <v>2019</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="97">
         <v>2330</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="97">
         <v>42127</v>
       </c>
       <c r="D7" s="7">
@@ -9534,7 +9566,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
@@ -9550,7 +9582,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -9564,65 +9596,65 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:14" s="22" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108" t="s">
+    <row r="10" spans="1:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-    </row>
-    <row r="11" spans="1:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+    </row>
+    <row r="11" spans="1:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-    </row>
-    <row r="12" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+    </row>
+    <row r="12" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="102" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="54" t="s">
         <v>5</v>
@@ -9648,18 +9680,18 @@
       <c r="I13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2013</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="96">
         <v>842</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="96">
         <v>14062</v>
       </c>
       <c r="D14" s="6">
@@ -9697,14 +9729,14 @@
         <v>21291</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2016</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>911</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>16644</v>
       </c>
       <c r="D15" s="49">
@@ -9742,14 +9774,14 @@
         <v>25620</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="68">
         <v>2019</v>
       </c>
-      <c r="B16" s="87">
+      <c r="B16" s="103">
         <v>93</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="103">
         <v>1202</v>
       </c>
       <c r="D16" s="82">
@@ -9788,7 +9820,7 @@
       </c>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -9798,18 +9830,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="92" orientation="landscape"/>
@@ -9821,55 +9853,55 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -9877,7 +9909,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="84" t="s">
         <v>5</v>
@@ -9903,19 +9935,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="97">
         <v>472</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="97">
         <v>17490</v>
       </c>
       <c r="D5" s="7">
@@ -9923,10 +9955,10 @@
         <v>17962</v>
       </c>
       <c r="E5" s="69"/>
-      <c r="F5" s="85">
+      <c r="F5" s="97">
         <v>3177</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="97">
         <v>17445</v>
       </c>
       <c r="H5" s="7">
@@ -9952,7 +9984,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -9968,56 +10000,56 @@
       <c r="M6" s="13"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>68</v>
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="102" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="19" t="s">
@@ -10025,7 +10057,7 @@
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="84" t="s">
         <v>5</v>
@@ -10051,19 +10083,19 @@
       <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="36"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="103">
         <v>221</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="103">
         <v>4461</v>
       </c>
       <c r="D13" s="82">
@@ -10074,10 +10106,10 @@
         <f>+D13/L13</f>
         <v>0.64668508287292814</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="97">
         <v>545</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="97">
         <v>2013</v>
       </c>
       <c r="H13" s="7">
@@ -10102,7 +10134,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -10136,62 +10168,62 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Hoja15">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F14" sqref="F14:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -10199,7 +10231,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="67" t="s">
         <v>5</v>
@@ -10225,19 +10257,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>449</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>24624</v>
       </c>
       <c r="D5" s="7">
@@ -10248,10 +10280,10 @@
         <f>+D5/L5</f>
         <v>0.59414691943127962</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>3197</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>13930</v>
       </c>
       <c r="H5" s="7">
@@ -10276,14 +10308,14 @@
       </c>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>1397</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>25018</v>
       </c>
       <c r="D6" s="7">
@@ -10294,10 +10326,10 @@
         <f>+D6/L6</f>
         <v>0.56977998274374464</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="96">
         <v>4655</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="96">
         <v>15290</v>
       </c>
       <c r="H6" s="7">
@@ -10322,14 +10354,14 @@
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>242</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>6789</v>
       </c>
       <c r="D7" s="7">
@@ -10340,10 +10372,10 @@
         <f>+D7/L7</f>
         <v>0.56028368794326244</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="96">
         <v>879</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="96">
         <v>4639</v>
       </c>
       <c r="H7" s="7">
@@ -10368,57 +10400,57 @@
       </c>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="102" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="35" t="s">
         <v>5</v>
@@ -10444,19 +10476,19 @@
       <c r="I13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="36"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="96">
         <v>771</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="96">
         <v>3939</v>
       </c>
       <c r="D14" s="7">
@@ -10467,10 +10499,10 @@
         <f>+D14/L14</f>
         <v>0.68369865002177388</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="96">
         <v>343</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="96">
         <v>1836</v>
       </c>
       <c r="H14" s="7">
@@ -10494,14 +10526,14 @@
         <v>6889</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>205</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>5390</v>
       </c>
       <c r="D15" s="7">
@@ -10512,10 +10544,10 @@
         <f>+D15/L15</f>
         <v>0.723709740007761</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="96">
         <v>372</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="96">
         <v>1764</v>
       </c>
       <c r="H15" s="7">
@@ -10540,14 +10572,14 @@
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>57</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>913</v>
       </c>
       <c r="D16" s="7">
@@ -10558,10 +10590,10 @@
         <f>+D16/L16</f>
         <v>0.71586715867158668</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="96">
         <v>112</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="96">
         <v>273</v>
       </c>
       <c r="H16" s="7">
@@ -10586,12 +10618,12 @@
       </c>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -10616,87 +10648,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="31.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="93" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E9284E54-004E-184E-B48F-568EF1567F72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Hoja16">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="5" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -10704,7 +10739,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="61" t="s">
         <v>5</v>
@@ -10730,19 +10765,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>521</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>4047</v>
       </c>
       <c r="D5" s="7">
@@ -10780,14 +10815,14 @@
         <v>9057</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>709</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>13166</v>
       </c>
       <c r="D6" s="7">
@@ -10822,14 +10857,14 @@
         <v>25956</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>564</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>13388</v>
       </c>
       <c r="D7" s="7">
@@ -10867,57 +10902,57 @@
         <v>24302</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="102" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="61" t="s">
         <v>5</v>
@@ -10943,19 +10978,19 @@
       <c r="I13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="36"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="96">
         <v>51</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="96">
         <v>1962</v>
       </c>
       <c r="D14" s="7">
@@ -10993,14 +11028,14 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>129</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>2319</v>
       </c>
       <c r="D15" s="7">
@@ -11038,14 +11073,14 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>166</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>2760</v>
       </c>
       <c r="D16" s="7">
@@ -11083,12 +11118,12 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
     </row>
   </sheetData>
@@ -11111,61 +11146,61 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Hoja17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F14" sqref="F14:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -11173,7 +11208,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="61" t="s">
         <v>5</v>
@@ -11199,19 +11234,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>193</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>3624</v>
       </c>
       <c r="D5" s="7">
@@ -11222,10 +11257,10 @@
         <f>+D5/L5</f>
         <v>0.57243551289742056</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="96">
         <v>479</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="96">
         <v>2372</v>
       </c>
       <c r="H5" s="7">
@@ -11249,14 +11284,14 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>214</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>8165</v>
       </c>
       <c r="D6" s="7">
@@ -11267,10 +11302,10 @@
         <f>+D6/L6</f>
         <v>0.68077673058173549</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="96">
         <v>505</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="96">
         <v>3424</v>
       </c>
       <c r="H6" s="7">
@@ -11294,14 +11329,14 @@
         <v>12308</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>254</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>8373</v>
       </c>
       <c r="D7" s="7">
@@ -11311,10 +11346,10 @@
       <c r="E7" s="69">
         <v>0.68077673058173549</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="96">
         <v>514</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="96">
         <v>4138</v>
       </c>
       <c r="H7" s="7">
@@ -11338,57 +11373,57 @@
         <v>13279</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="102" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="61" t="s">
         <v>5</v>
@@ -11414,19 +11449,19 @@
       <c r="I13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="36"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="96">
         <v>19</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="96">
         <v>529</v>
       </c>
       <c r="D14" s="7">
@@ -11437,10 +11472,10 @@
         <f>+D14/L14</f>
         <v>0.6790582403965304</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="96">
         <v>72</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="96">
         <v>187</v>
       </c>
       <c r="H14" s="7">
@@ -11464,14 +11499,14 @@
         <v>807</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>47</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>817</v>
       </c>
       <c r="D15" s="7">
@@ -11482,10 +11517,10 @@
         <f>+D15/L15</f>
         <v>0.67977970102281671</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="96">
         <v>131</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="96">
         <v>276</v>
       </c>
       <c r="H15" s="7">
@@ -11509,14 +11544,14 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>41</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>916</v>
       </c>
       <c r="D16" s="7">
@@ -11527,10 +11562,10 @@
         <f>+D16/L16</f>
         <v>0.6586373021335169</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="96">
         <v>171</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="96">
         <v>325</v>
       </c>
       <c r="H16" s="7">
@@ -11553,7 +11588,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -11578,61 +11613,61 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Hoja18">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -11640,7 +11675,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="61" t="s">
         <v>5</v>
@@ -11666,19 +11701,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>140</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>7866</v>
       </c>
       <c r="D5" s="7">
@@ -11716,14 +11751,14 @@
         <v>11361</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>221</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>8290</v>
       </c>
       <c r="D6" s="7">
@@ -11761,14 +11796,14 @@
         <v>11637</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="96">
         <v>264</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="96">
         <v>5699</v>
       </c>
       <c r="D7" s="7">
@@ -11805,57 +11840,57 @@
         <v>9238</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="100" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="97" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="102" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="61" t="s">
         <v>5</v>
@@ -11881,19 +11916,19 @@
       <c r="I13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="36"/>
       <c r="N13" s="53"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="96">
         <v>30</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="96">
         <v>545</v>
       </c>
       <c r="D14" s="7">
@@ -11931,14 +11966,14 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="96">
         <v>66</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="96">
         <v>1096</v>
       </c>
       <c r="D15" s="7">
@@ -11976,14 +12011,14 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="96">
         <v>52</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="96">
         <v>659</v>
       </c>
       <c r="D16" s="7">
@@ -12020,7 +12055,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
@@ -12045,62 +12080,62 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Hoja19">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="9" width="10.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
-    <col min="11" max="12" width="10.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="3" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -12108,7 +12143,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="63" t="s">
         <v>5</v>
@@ -12134,19 +12169,19 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="96">
         <v>17</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="96">
         <v>121</v>
       </c>
       <c r="D5" s="7">
@@ -12184,14 +12219,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="96">
         <v>9</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="96">
         <v>169</v>
       </c>
       <c r="D6" s="7">
@@ -12228,57 +12263,57 @@
         <v>659</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="102" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="102" t="s">
+      <c r="K11" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="63" t="s">
         <v>5</v>
@@ -12304,19 +12339,19 @@
       <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
       <c r="L12" s="36"/>
       <c r="N12" s="53"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="96">
         <v>2</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="96">
         <v>69</v>
       </c>
       <c r="D13" s="7">
@@ -12354,14 +12389,14 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="96">
         <v>5</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="96">
         <v>36</v>
       </c>
       <c r="D14" s="7">
@@ -12398,15 +12433,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
     </row>
   </sheetData>
@@ -12429,77 +12464,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="79" t="s">
         <v>5</v>
@@ -12525,13 +12560,13 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>105</v>
       </c>
@@ -12569,7 +12604,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>106</v>
       </c>
@@ -12607,7 +12642,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -12645,7 +12680,7 @@
         <v>19025</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -12683,7 +12718,7 @@
         <v>47693</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -12721,7 +12756,7 @@
         <v>65355</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -12759,7 +12794,7 @@
         <v>58988</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
@@ -12797,7 +12832,7 @@
         <v>132580</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>114</v>
       </c>
@@ -12835,7 +12870,7 @@
         <v>131215</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>113</v>
       </c>
@@ -12873,7 +12908,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>115</v>
       </c>
@@ -12911,7 +12946,7 @@
         <v>13904</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -12949,7 +12984,7 @@
         <v>28582</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -12987,7 +13022,7 @@
         <v>14732</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
@@ -13025,7 +13060,7 @@
         <v>10319</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>112</v>
       </c>
@@ -13063,7 +13098,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>38</v>
       </c>
@@ -13101,7 +13136,7 @@
         <v>571894</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
@@ -13121,7 +13156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja20"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -13129,65 +13164,65 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -13195,7 +13230,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="78" t="s">
         <v>5</v>
@@ -13221,14 +13256,14 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -13267,7 +13302,7 @@
       </c>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -13306,7 +13341,7 @@
       </c>
       <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -13345,7 +13380,7 @@
       </c>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -13384,7 +13419,7 @@
       </c>
       <c r="N8" s="65"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -13423,7 +13458,7 @@
       </c>
       <c r="N9" s="65"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -13462,7 +13497,7 @@
       </c>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>103</v>
       </c>
@@ -13501,7 +13536,7 @@
       </c>
       <c r="N11" s="65"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -13540,7 +13575,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -13579,7 +13614,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -13618,7 +13653,7 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -13657,7 +13692,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -13696,7 +13731,7 @@
       </c>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -13735,7 +13770,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
         <v>38</v>
       </c>
@@ -13784,7 +13819,7 @@
         <v>582355</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
@@ -13804,7 +13839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -13812,65 +13847,65 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -13878,7 +13913,7 @@
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="71" t="s">
         <v>5</v>
@@ -13904,14 +13939,14 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -13950,7 +13985,7 @@
       </c>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -13989,7 +14024,7 @@
       </c>
       <c r="N6" s="65"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -14028,7 +14063,7 @@
       </c>
       <c r="N7" s="65"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -14067,7 +14102,7 @@
       </c>
       <c r="N8" s="65"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>98</v>
       </c>
@@ -14106,7 +14141,7 @@
       </c>
       <c r="N9" s="65"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -14145,7 +14180,7 @@
       </c>
       <c r="N10" s="65"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -14184,7 +14219,7 @@
       </c>
       <c r="N11" s="65"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -14223,7 +14258,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -14262,7 +14297,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -14301,7 +14336,7 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -14340,7 +14375,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -14379,7 +14414,7 @@
       </c>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -14418,7 +14453,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
         <v>38</v>
       </c>
@@ -14467,7 +14502,7 @@
         <v>565144</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
@@ -14487,7 +14522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -14495,71 +14530,71 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="97" t="s">
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="110" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="67" t="s">
         <v>5</v>
@@ -14585,13 +14620,13 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -14629,7 +14664,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -14667,7 +14702,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -14705,7 +14740,7 @@
         <v>17663</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -14743,7 +14778,7 @@
         <v>46797</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -14781,7 +14816,7 @@
         <v>60850</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>56</v>
       </c>
@@ -14819,7 +14854,7 @@
         <v>59809</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
@@ -14857,7 +14892,7 @@
         <v>128268</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>83</v>
       </c>
@@ -14895,7 +14930,7 @@
         <v>133758</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -14933,7 +14968,7 @@
         <v>54091</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>85</v>
       </c>
@@ -14971,7 +15006,7 @@
         <v>29465</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>86</v>
       </c>
@@ -15009,7 +15044,7 @@
         <v>13579</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>87</v>
       </c>
@@ -15047,7 +15082,7 @@
         <v>13064</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>88</v>
       </c>
@@ -15085,7 +15120,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>38</v>
       </c>
@@ -15134,7 +15169,7 @@
         <v>561460</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>39</v>
       </c>
@@ -15153,65 +15188,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="117" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -15225,10 +15260,10 @@
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -15252,7 +15287,7 @@
         <v>3.4654533753982829E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -15276,7 +15311,7 @@
         <v>9.1814992701417339E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -15300,7 +15335,7 @@
         <v>0.11938676209759697</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -15324,7 +15359,7 @@
         <v>0.11734433614289526</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>44</v>
       </c>
@@ -15348,7 +15383,7 @@
         <v>0.25165983896030514</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
@@ -15372,7 +15407,7 @@
         <v>0.22722332093359074</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -15396,7 +15431,7 @@
         <v>9.6311861374017052E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -15420,7 +15455,7 @@
         <v>2.2980725463420761E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -15444,7 +15479,7 @@
         <v>1.4750200122427838E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -15468,7 +15503,7 @@
         <v>2.3873428450346092E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -15497,7 +15532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
@@ -15518,7 +15553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15528,55 +15563,55 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="117" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -15590,10 +15625,10 @@
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -15618,7 +15653,7 @@
         <v>4.1620391541996038E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -15643,7 +15678,7 @@
         <v>9.0114907486044879E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -15668,7 +15703,7 @@
         <v>0.11042515043952295</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -15693,7 +15728,7 @@
         <v>0.1085360365264984</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
@@ -15718,7 +15753,7 @@
         <v>0.29307397486988523</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
@@ -15743,7 +15778,7 @@
         <v>0.21016709856783025</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -15768,7 +15803,7 @@
         <v>8.9082337057119834E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -15793,7 +15828,7 @@
         <v>2.1255707265376043E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -15818,7 +15853,7 @@
         <v>1.3642995579364561E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -15843,7 +15878,7 @@
         <v>2.2081400666361797E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -15872,12 +15907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
     </row>
   </sheetData>
@@ -15896,7 +15931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15906,55 +15941,55 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="2" max="5" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="116"/>
+      <c r="D3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107" t="s">
+      <c r="E3" s="116"/>
+      <c r="F3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="117" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>5</v>
@@ -15968,10 +16003,10 @@
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -15996,7 +16031,7 @@
         <v>4.0308265523119911E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -16021,7 +16056,7 @@
         <v>8.7273941545545616E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -16046,7 +16081,7 @@
         <v>0.11903021142726586</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>31</v>
       </c>
@@ -16071,7 +16106,7 @@
         <v>0.12455403434155257</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
@@ -16096,7 +16131,7 @@
         <v>0.28383451378758856</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
@@ -16121,7 +16156,7 @@
         <v>0.2035413627656022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -16146,7 +16181,7 @@
         <v>8.62739239705443E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -16171,7 +16206,7 @@
         <v>2.058559904391993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -16196,7 +16231,7 @@
         <v>1.321288599096645E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -16221,7 +16256,7 @@
         <v>2.1385261603894621E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
@@ -16250,12 +16285,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="13"/>
     </row>
   </sheetData>
